--- a/Rastreo productos/output.xlsx
+++ b/Rastreo productos/output.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="2018-10-09" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2018-09-01" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2018-10-09" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="47">
   <si>
     <t>I</t>
   </si>
@@ -28,57 +29,120 @@
     <t>BUCHE</t>
   </si>
   <si>
+    <t>AGUA NATURAL</t>
+  </si>
+  <si>
+    <t>CORONA</t>
+  </si>
+  <si>
+    <t>CEBADA</t>
+  </si>
+  <si>
+    <t>MANGO</t>
+  </si>
+  <si>
+    <t>BOLILLO</t>
+  </si>
+  <si>
+    <t>DORADO PAPA</t>
+  </si>
+  <si>
     <t>PANCITA</t>
   </si>
   <si>
+    <t>AGUA MINERAL</t>
+  </si>
+  <si>
+    <t>CORONA LIGHT</t>
+  </si>
+  <si>
+    <t>COCO</t>
+  </si>
+  <si>
+    <t>BOING GUAYABA</t>
+  </si>
+  <si>
+    <t>BOLILLO MINI</t>
+  </si>
+  <si>
+    <t>DORADO FRIJOL</t>
+  </si>
+  <si>
     <t>LENGUA</t>
   </si>
   <si>
+    <t>COCA COLA BOTELLA</t>
+  </si>
+  <si>
+    <t>MODELO ESPECIAL</t>
+  </si>
+  <si>
+    <t>AGUA DE GUAYABA</t>
+  </si>
+  <si>
+    <t>FRESA</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>DORADO REQUESON</t>
+  </si>
+  <si>
     <t>PIERNA</t>
   </si>
   <si>
+    <t>COCA COLA SIN AZUCAR</t>
+  </si>
+  <si>
+    <t>NEGRA</t>
+  </si>
+  <si>
+    <t>HORCHATA</t>
+  </si>
+  <si>
     <t>ASADA</t>
   </si>
   <si>
+    <t>COCA LIGHT BOTELLA</t>
+  </si>
+  <si>
+    <t>PACIFICO</t>
+  </si>
+  <si>
+    <t>JAMAICA</t>
+  </si>
+  <si>
     <t>ARRACHERA</t>
   </si>
   <si>
+    <t>FANTA BOTELLA</t>
+  </si>
+  <si>
+    <t>VICTORIA</t>
+  </si>
+  <si>
+    <t>AGUA DE LIMON</t>
+  </si>
+  <si>
     <t>CHORIZO</t>
   </si>
   <si>
+    <t>FRESCA BOTELLA</t>
+  </si>
+  <si>
+    <t>TAMARINDO</t>
+  </si>
+  <si>
     <t>MARLIN</t>
   </si>
   <si>
+    <t>MANZANA LIFT BOTELLA</t>
+  </si>
+  <si>
     <t>CAMARON</t>
   </si>
   <si>
-    <t>TOTAL</t>
-  </si>
-  <si>
-    <t>AGUA NATURAL</t>
-  </si>
-  <si>
-    <t>AGUA MINERAL</t>
-  </si>
-  <si>
-    <t>COCA COLA BOTELLA</t>
-  </si>
-  <si>
-    <t>COCA COLA SIN AZUCAR</t>
-  </si>
-  <si>
-    <t>COCA LIGHT BOTELLA</t>
-  </si>
-  <si>
-    <t>FANTA BOTELLA</t>
-  </si>
-  <si>
-    <t>FRESCA BOTELLA</t>
-  </si>
-  <si>
-    <t>MANZANA LIFT BOTELLA</t>
-  </si>
-  <si>
     <t>SPRITE BOTELLA</t>
   </si>
   <si>
@@ -92,101 +156,42 @@
   </si>
   <si>
     <t>SPRITE ZERO</t>
-  </si>
-  <si>
-    <t>CORONA</t>
-  </si>
-  <si>
-    <t>CORONA LIGHT</t>
-  </si>
-  <si>
-    <t>MODELO ESPECIAL</t>
-  </si>
-  <si>
-    <t>NEGRA</t>
-  </si>
-  <si>
-    <t>PACIFICO</t>
-  </si>
-  <si>
-    <t>VICTORIA</t>
-  </si>
-  <si>
-    <t>CEBADA</t>
-  </si>
-  <si>
-    <t>COCO</t>
-  </si>
-  <si>
-    <t>AGUA DE GUAYABA</t>
-  </si>
-  <si>
-    <t>HORCHATA</t>
-  </si>
-  <si>
-    <t>JAMAICA</t>
-  </si>
-  <si>
-    <t>AGUA DE LIMON</t>
-  </si>
-  <si>
-    <t>TAMARINDO</t>
-  </si>
-  <si>
-    <t>MANGO</t>
-  </si>
-  <si>
-    <t>BOING GUAYABA</t>
-  </si>
-  <si>
-    <t>FRESA</t>
-  </si>
-  <si>
-    <t>BOLILLO</t>
-  </si>
-  <si>
-    <t>BOLILLO MINI</t>
-  </si>
-  <si>
-    <t>DORADO PAPA</t>
-  </si>
-  <si>
-    <t>DORADO FRIJOL</t>
-  </si>
-  <si>
-    <t>DORADO REQUESON</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -209,21 +214,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -511,12 +525,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:AB15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:28">
       <c r="B1" s="1" t="s">
@@ -587,631 +607,1343 @@
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="n">
         <v>14.94</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>4.77</v>
       </c>
-      <c r="D2">
-        <v>3.24</v>
+      <c r="D2" t="n">
+        <v>4.05</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2">
+        <v>4</v>
+      </c>
+      <c r="F2" t="n">
         <v>43</v>
       </c>
-      <c r="G2">
+      <c r="G2" t="n">
         <v>15</v>
       </c>
-      <c r="H2">
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" t="n">
+        <v>398</v>
+      </c>
+      <c r="K2" t="n">
+        <v>62</v>
+      </c>
+      <c r="L2" t="n">
+        <v>124</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N2" t="n">
+        <v>54</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J2">
-        <v>398</v>
-      </c>
-      <c r="K2">
-        <v>62</v>
-      </c>
-      <c r="L2">
-        <v>50</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N2">
-        <v>54</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="R2">
+      <c r="R2" t="n">
         <v>16</v>
       </c>
-      <c r="S2">
+      <c r="S2" t="n">
         <v>8</v>
       </c>
-      <c r="T2">
-        <v>10</v>
+      <c r="T2" t="n">
+        <v>6</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="V2">
+        <v>8</v>
+      </c>
+      <c r="V2" t="n">
         <v>771</v>
       </c>
-      <c r="W2">
+      <c r="W2" t="n">
         <v>181</v>
       </c>
-      <c r="X2">
-        <v>176</v>
+      <c r="X2" t="n">
+        <v>201</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z2">
+        <v>9</v>
+      </c>
+      <c r="Z2" t="n">
         <v>350</v>
       </c>
-      <c r="AA2">
+      <c r="AA2" t="n">
         <v>86</v>
       </c>
-      <c r="AB2">
-        <v>93</v>
+      <c r="AB2" t="n">
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:28">
       <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="B3" t="n">
         <v>7.56</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>3.24</v>
       </c>
-      <c r="D3">
-        <v>3.09</v>
+      <c r="D3" t="n">
+        <v>2.79</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="n">
+        <v>29</v>
+      </c>
+      <c r="G3" t="n">
+        <v>15</v>
+      </c>
+      <c r="H3" t="n">
+        <v>13</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" t="n">
+        <v>106</v>
+      </c>
+      <c r="K3" t="n">
+        <v>13</v>
+      </c>
+      <c r="L3" t="n">
+        <v>32</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N3" t="n">
+        <v>41</v>
+      </c>
+      <c r="O3" t="n">
+        <v>19</v>
+      </c>
+      <c r="P3" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F3">
-        <v>29</v>
-      </c>
-      <c r="G3">
+      <c r="R3" t="n">
+        <v>17</v>
+      </c>
+      <c r="S3" t="n">
+        <v>9</v>
+      </c>
+      <c r="T3" t="n">
+        <v>3</v>
+      </c>
+      <c r="U3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H3">
-        <v>10</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3">
-        <v>106</v>
-      </c>
-      <c r="K3">
-        <v>13</v>
-      </c>
-      <c r="L3">
-        <v>36</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="N3">
-        <v>41</v>
-      </c>
-      <c r="O3">
-        <v>19</v>
-      </c>
-      <c r="P3">
-        <v>24</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="R3">
-        <v>17</v>
-      </c>
-      <c r="S3">
-        <v>9</v>
-      </c>
-      <c r="T3">
-        <v>6</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="V3">
+      <c r="V3" t="n">
         <v>338</v>
       </c>
-      <c r="W3">
+      <c r="W3" t="n">
         <v>69</v>
       </c>
-      <c r="X3">
-        <v>65</v>
+      <c r="X3" t="n">
+        <v>88</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z3">
+        <v>16</v>
+      </c>
+      <c r="Z3" t="n">
         <v>303</v>
       </c>
-      <c r="AA3">
+      <c r="AA3" t="n">
         <v>64</v>
       </c>
-      <c r="AB3">
-        <v>58</v>
+      <c r="AB3" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:28">
       <c r="A4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="n">
+        <v>9.93</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="n">
+        <v>205</v>
+      </c>
+      <c r="G4" t="n">
+        <v>81</v>
+      </c>
+      <c r="H4" t="n">
+        <v>50</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" t="n">
+        <v>28</v>
+      </c>
+      <c r="K4" t="n">
+        <v>14</v>
+      </c>
+      <c r="L4" t="n">
+        <v>4</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N4" t="n">
+        <v>64</v>
+      </c>
+      <c r="O4" t="n">
+        <v>24</v>
+      </c>
+      <c r="P4" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="R4" t="n">
         <v>5</v>
       </c>
-      <c r="B4">
-        <v>9.93</v>
-      </c>
-      <c r="C4">
-        <v>2.97</v>
-      </c>
-      <c r="D4">
-        <v>2.46</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4">
-        <v>205</v>
-      </c>
-      <c r="G4">
-        <v>81</v>
-      </c>
-      <c r="H4">
-        <v>41</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J4">
-        <v>28</v>
-      </c>
-      <c r="K4">
-        <v>14</v>
-      </c>
-      <c r="L4">
-        <v>12</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="N4">
-        <v>64</v>
-      </c>
-      <c r="O4">
-        <v>24</v>
-      </c>
-      <c r="P4">
-        <v>21</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="R4">
-        <v>5</v>
-      </c>
-      <c r="S4">
+      <c r="S4" t="n">
         <v>7</v>
       </c>
-      <c r="T4">
+      <c r="T4" t="n">
         <v>2</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="V4">
+        <v>22</v>
+      </c>
+      <c r="V4" t="n">
         <v>1109</v>
       </c>
-      <c r="W4">
+      <c r="W4" t="n">
         <v>250</v>
       </c>
-      <c r="X4">
-        <v>241</v>
+      <c r="X4" t="n">
+        <v>289</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z4">
+        <v>23</v>
+      </c>
+      <c r="Z4" t="n">
         <v>184</v>
       </c>
-      <c r="AA4">
+      <c r="AA4" t="n">
         <v>48</v>
       </c>
-      <c r="AB4">
-        <v>35</v>
+      <c r="AB4" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:28">
       <c r="A5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="n">
+        <v>103.65</v>
+      </c>
+      <c r="C5" t="n">
+        <v>26.76</v>
+      </c>
+      <c r="D5" t="n">
+        <v>24.84</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" t="n">
+        <v>9</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2</v>
+      </c>
+      <c r="H5" t="n">
         <v>6</v>
       </c>
-      <c r="B5">
-        <v>103.65</v>
-      </c>
-      <c r="C5">
-        <v>26.76</v>
-      </c>
-      <c r="D5">
-        <v>19.77</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5">
-        <v>9</v>
-      </c>
-      <c r="G5">
-        <v>2</v>
-      </c>
-      <c r="H5">
-        <v>3</v>
-      </c>
       <c r="I5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J5">
+        <v>26</v>
+      </c>
+      <c r="J5" t="n">
         <v>58</v>
       </c>
-      <c r="K5">
+      <c r="K5" t="n">
         <v>22</v>
       </c>
-      <c r="L5">
-        <v>7</v>
+      <c r="L5" t="n">
+        <v>12</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="N5">
+        <v>27</v>
+      </c>
+      <c r="N5" t="n">
         <v>161</v>
       </c>
-      <c r="O5">
+      <c r="O5" t="n">
         <v>47</v>
       </c>
-      <c r="P5">
+      <c r="P5" t="n">
+        <v>44</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R5" t="n">
+        <v>38</v>
+      </c>
+      <c r="S5" t="n">
         <v>24</v>
       </c>
-      <c r="Q5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R5">
-        <v>38</v>
-      </c>
-      <c r="S5">
-        <v>24</v>
-      </c>
-      <c r="T5">
-        <v>18</v>
+      <c r="T5" t="n">
+        <v>11</v>
       </c>
       <c r="Y5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z5">
+        <v>22</v>
+      </c>
+      <c r="Z5" t="n">
         <v>837</v>
       </c>
-      <c r="AA5">
+      <c r="AA5" t="n">
         <v>198</v>
       </c>
-      <c r="AB5">
-        <v>186</v>
+      <c r="AB5" t="n">
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:28">
       <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6">
+        <v>28</v>
+      </c>
+      <c r="B6" t="n">
         <v>19.17</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="n">
         <v>13.38</v>
       </c>
-      <c r="D6">
-        <v>6.21</v>
+      <c r="D6" t="n">
+        <v>6.39</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6">
+        <v>29</v>
+      </c>
+      <c r="F6" t="n">
         <v>101</v>
       </c>
-      <c r="G6">
+      <c r="G6" t="n">
         <v>41</v>
       </c>
-      <c r="H6">
-        <v>21</v>
+      <c r="H6" t="n">
+        <v>33</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J6">
+      <c r="J6" t="n">
         <v>100</v>
       </c>
-      <c r="K6">
+      <c r="K6" t="n">
         <v>31</v>
       </c>
-      <c r="L6">
-        <v>38</v>
+      <c r="L6" t="n">
+        <v>8</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="N6">
+        <v>31</v>
+      </c>
+      <c r="N6" t="n">
         <v>81</v>
       </c>
-      <c r="O6">
+      <c r="O6" t="n">
         <v>34</v>
       </c>
-      <c r="P6">
-        <v>24</v>
+      <c r="P6" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:28">
       <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7">
+        <v>32</v>
+      </c>
+      <c r="B7" t="n">
         <v>8.91</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="n">
         <v>7.44</v>
       </c>
-      <c r="D7">
-        <v>3.3</v>
+      <c r="D7" t="n">
+        <v>4.08</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7">
+        <v>33</v>
+      </c>
+      <c r="F7" t="n">
         <v>10</v>
       </c>
-      <c r="G7">
+      <c r="G7" t="n">
         <v>6</v>
       </c>
-      <c r="H7">
-        <v>5</v>
+      <c r="H7" t="n">
+        <v>3</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J7">
+        <v>34</v>
+      </c>
+      <c r="J7" t="n">
         <v>69</v>
       </c>
-      <c r="K7">
+      <c r="K7" t="n">
         <v>9</v>
       </c>
-      <c r="L7">
-        <v>13</v>
+      <c r="L7" t="n">
+        <v>17</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="N7">
+        <v>35</v>
+      </c>
+      <c r="N7" t="n">
         <v>83</v>
       </c>
-      <c r="O7">
+      <c r="O7" t="n">
         <v>43</v>
       </c>
-      <c r="P7">
-        <v>23</v>
+      <c r="P7" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:28">
       <c r="A8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8">
+        <v>36</v>
+      </c>
+      <c r="B8" t="n">
         <v>3.3</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="n">
         <v>2.4</v>
       </c>
-      <c r="D8">
+      <c r="D8" t="n">
         <v>1.41</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8">
+        <v>37</v>
+      </c>
+      <c r="F8" t="n">
         <v>8</v>
       </c>
-      <c r="G8">
+      <c r="G8" t="n">
         <v>5</v>
       </c>
-      <c r="H8">
+      <c r="H8" t="n">
         <v>1</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J8">
+        <v>22</v>
+      </c>
+      <c r="J8" t="n">
         <v>759</v>
       </c>
-      <c r="K8">
+      <c r="K8" t="n">
         <v>151</v>
       </c>
-      <c r="L8">
-        <v>156</v>
+      <c r="L8" t="n">
+        <v>197</v>
       </c>
       <c r="M8" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="N8">
+      <c r="N8" t="n">
         <v>58</v>
       </c>
-      <c r="O8">
+      <c r="O8" t="n">
         <v>19</v>
       </c>
-      <c r="P8">
-        <v>18</v>
+      <c r="P8" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:28">
       <c r="A9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9">
+        <v>39</v>
+      </c>
+      <c r="B9" t="n">
         <v>3.24</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="n">
         <v>2.34</v>
       </c>
-      <c r="D9">
-        <v>2.19</v>
+      <c r="D9" t="n">
+        <v>2.7</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" t="n">
         <v>20</v>
       </c>
-      <c r="F9">
-        <v>20</v>
-      </c>
-      <c r="G9">
+      <c r="G9" t="n">
         <v>9</v>
       </c>
-      <c r="H9">
-        <v>0</v>
+      <c r="H9" t="n">
+        <v>2</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N9">
+        <v>22</v>
+      </c>
+      <c r="N9" t="n">
         <v>542</v>
       </c>
-      <c r="O9">
+      <c r="O9" t="n">
         <v>186</v>
       </c>
-      <c r="P9">
-        <v>134</v>
+      <c r="P9" t="n">
+        <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:28">
       <c r="A10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10">
+        <v>41</v>
+      </c>
+      <c r="B10" t="n">
         <v>45.42</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="n">
         <v>13.5</v>
       </c>
-      <c r="D10">
-        <v>10.71</v>
+      <c r="D10" t="n">
+        <v>12.36</v>
       </c>
       <c r="E10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" t="n">
         <v>21</v>
       </c>
-      <c r="F10">
-        <v>21</v>
-      </c>
-      <c r="G10">
+      <c r="G10" t="n">
         <v>13</v>
       </c>
-      <c r="H10">
-        <v>10</v>
+      <c r="H10" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:28">
       <c r="A11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11">
+        <v>22</v>
+      </c>
+      <c r="B11" t="n">
         <v>216.12</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="n">
         <v>76.8</v>
       </c>
-      <c r="D11">
-        <v>52.37999999999999</v>
+      <c r="D11" t="n">
+        <v>61.62</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11">
+        <v>43</v>
+      </c>
+      <c r="F11" t="n">
         <v>14</v>
       </c>
-      <c r="G11">
+      <c r="G11" t="n">
         <v>6</v>
       </c>
-      <c r="H11">
-        <v>5</v>
+      <c r="H11" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:28">
       <c r="E12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12">
+        <v>44</v>
+      </c>
+      <c r="F12" t="n">
         <v>8</v>
       </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="H12">
+      <c r="G12" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:28">
       <c r="E13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13">
+        <v>45</v>
+      </c>
+      <c r="F13" t="n">
         <v>4</v>
       </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="H13">
+      <c r="G13" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:28">
       <c r="E14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F14">
+        <v>46</v>
+      </c>
+      <c r="F14" t="n">
         <v>10</v>
       </c>
-      <c r="G14">
+      <c r="G14" t="n">
         <v>6</v>
       </c>
-      <c r="H14">
-        <v>5</v>
+      <c r="H14" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:28">
       <c r="E15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" t="n">
+        <v>482</v>
+      </c>
+      <c r="G15" t="n">
+        <v>201</v>
+      </c>
+      <c r="H15" t="n">
+        <v>129</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AB15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:28">
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="n">
+        <v>14.94</v>
+      </c>
+      <c r="C2" t="n">
+        <v>4.77</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="n">
+        <v>43</v>
+      </c>
+      <c r="G2" t="n">
+        <v>15</v>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" t="n">
+        <v>398</v>
+      </c>
+      <c r="K2" t="n">
+        <v>62</v>
+      </c>
+      <c r="L2" t="n">
+        <v>124</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N2" t="n">
+        <v>54</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="R2" t="n">
+        <v>16</v>
+      </c>
+      <c r="S2" t="n">
+        <v>8</v>
+      </c>
+      <c r="T2" t="n">
+        <v>6</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="V2" t="n">
+        <v>771</v>
+      </c>
+      <c r="W2" t="n">
+        <v>181</v>
+      </c>
+      <c r="X2" t="n">
+        <v>201</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>350</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>86</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28">
+      <c r="A3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="n">
+        <v>7.56</v>
+      </c>
+      <c r="C3" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="n">
+        <v>29</v>
+      </c>
+      <c r="G3" t="n">
+        <v>15</v>
+      </c>
+      <c r="H3" t="n">
+        <v>13</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F15">
+      <c r="J3" t="n">
+        <v>106</v>
+      </c>
+      <c r="K3" t="n">
+        <v>13</v>
+      </c>
+      <c r="L3" t="n">
+        <v>32</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N3" t="n">
+        <v>41</v>
+      </c>
+      <c r="O3" t="n">
+        <v>19</v>
+      </c>
+      <c r="P3" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R3" t="n">
+        <v>17</v>
+      </c>
+      <c r="S3" t="n">
+        <v>9</v>
+      </c>
+      <c r="T3" t="n">
+        <v>3</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="V3" t="n">
+        <v>338</v>
+      </c>
+      <c r="W3" t="n">
+        <v>69</v>
+      </c>
+      <c r="X3" t="n">
+        <v>88</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>303</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>64</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28">
+      <c r="A4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="n">
+        <v>9.93</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="n">
+        <v>205</v>
+      </c>
+      <c r="G4" t="n">
+        <v>81</v>
+      </c>
+      <c r="H4" t="n">
+        <v>50</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" t="n">
+        <v>28</v>
+      </c>
+      <c r="K4" t="n">
+        <v>14</v>
+      </c>
+      <c r="L4" t="n">
+        <v>4</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N4" t="n">
+        <v>64</v>
+      </c>
+      <c r="O4" t="n">
+        <v>24</v>
+      </c>
+      <c r="P4" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R4" t="n">
+        <v>5</v>
+      </c>
+      <c r="S4" t="n">
+        <v>7</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1109</v>
+      </c>
+      <c r="W4" t="n">
+        <v>250</v>
+      </c>
+      <c r="X4" t="n">
+        <v>289</v>
+      </c>
+      <c r="Y4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>184</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>48</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28">
+      <c r="A5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="n">
+        <v>103.65</v>
+      </c>
+      <c r="C5" t="n">
+        <v>26.76</v>
+      </c>
+      <c r="D5" t="n">
+        <v>24.84</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" t="n">
+        <v>9</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2</v>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" t="n">
+        <v>58</v>
+      </c>
+      <c r="K5" t="n">
+        <v>22</v>
+      </c>
+      <c r="L5" t="n">
+        <v>12</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N5" t="n">
+        <v>161</v>
+      </c>
+      <c r="O5" t="n">
+        <v>47</v>
+      </c>
+      <c r="P5" t="n">
+        <v>44</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="R5" t="n">
+        <v>38</v>
+      </c>
+      <c r="S5" t="n">
+        <v>24</v>
+      </c>
+      <c r="T5" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>837</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>198</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28">
+      <c r="A6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="n">
+        <v>19.17</v>
+      </c>
+      <c r="C6" t="n">
+        <v>13.38</v>
+      </c>
+      <c r="D6" t="n">
+        <v>6.39</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" t="n">
+        <v>101</v>
+      </c>
+      <c r="G6" t="n">
+        <v>41</v>
+      </c>
+      <c r="H6" t="n">
+        <v>33</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" t="n">
+        <v>100</v>
+      </c>
+      <c r="K6" t="n">
+        <v>31</v>
+      </c>
+      <c r="L6" t="n">
+        <v>8</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N6" t="n">
+        <v>81</v>
+      </c>
+      <c r="O6" t="n">
+        <v>34</v>
+      </c>
+      <c r="P6" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28">
+      <c r="A7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" t="n">
+        <v>8.91</v>
+      </c>
+      <c r="C7" t="n">
+        <v>7.44</v>
+      </c>
+      <c r="D7" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" t="n">
+        <v>10</v>
+      </c>
+      <c r="G7" t="n">
+        <v>6</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J7" t="n">
+        <v>69</v>
+      </c>
+      <c r="K7" t="n">
+        <v>9</v>
+      </c>
+      <c r="L7" t="n">
+        <v>17</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N7" t="n">
+        <v>83</v>
+      </c>
+      <c r="O7" t="n">
+        <v>43</v>
+      </c>
+      <c r="P7" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28">
+      <c r="A8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" t="n">
+        <v>8</v>
+      </c>
+      <c r="G8" t="n">
+        <v>5</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8" t="n">
+        <v>759</v>
+      </c>
+      <c r="K8" t="n">
+        <v>151</v>
+      </c>
+      <c r="L8" t="n">
+        <v>197</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="N8" t="n">
+        <v>58</v>
+      </c>
+      <c r="O8" t="n">
+        <v>19</v>
+      </c>
+      <c r="P8" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28">
+      <c r="A9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" t="n">
+        <v>20</v>
+      </c>
+      <c r="G9" t="n">
+        <v>9</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N9" t="n">
+        <v>542</v>
+      </c>
+      <c r="O9" t="n">
+        <v>186</v>
+      </c>
+      <c r="P9" t="n">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28">
+      <c r="A10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" t="n">
+        <v>45.42</v>
+      </c>
+      <c r="C10" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="D10" t="n">
+        <v>12.36</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" t="n">
+        <v>21</v>
+      </c>
+      <c r="G10" t="n">
+        <v>13</v>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28">
+      <c r="A11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="n">
+        <v>216.12</v>
+      </c>
+      <c r="C11" t="n">
+        <v>76.8</v>
+      </c>
+      <c r="D11" t="n">
+        <v>61.62</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="n">
+        <v>14</v>
+      </c>
+      <c r="G11" t="n">
+        <v>6</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28">
+      <c r="E12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="n">
+        <v>8</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28">
+      <c r="E13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" t="n">
+        <v>4</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28">
+      <c r="E14" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" t="n">
+        <v>10</v>
+      </c>
+      <c r="G14" t="n">
+        <v>6</v>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28">
+      <c r="E15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" t="n">
         <v>482</v>
       </c>
-      <c r="G15">
+      <c r="G15" t="n">
         <v>201</v>
       </c>
-      <c r="H15">
-        <v>109</v>
+      <c r="H15" t="n">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/Rastreo productos/output.xlsx
+++ b/Rastreo productos/output.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="390" yWindow="555" windowWidth="12615" windowHeight="6855" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2018-09-01" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2018-10-09" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="2018-09-01" sheetId="1" r:id="rId1"/>
+    <sheet name="2018-10-09" sheetId="2" r:id="rId2"/>
+    <sheet name="2018-11-14(05-11_11)" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="47">
   <si>
     <t>I</t>
   </si>
@@ -161,31 +162,33 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -215,29 +218,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -525,20 +542,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -603,654 +614,1356 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:28">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>14.94</v>
       </c>
-      <c r="C2" t="n">
-        <v>4.77</v>
-      </c>
-      <c r="D2" t="n">
+      <c r="C2">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="D2">
         <v>4.05</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>43</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>15</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2">
         <v>8</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2">
         <v>398</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K2">
         <v>62</v>
       </c>
-      <c r="L2" t="n">
+      <c r="L2">
         <v>124</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="N2" t="n">
+      <c r="N2">
         <v>54</v>
       </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R2" t="n">
+      <c r="R2">
         <v>16</v>
       </c>
-      <c r="S2" t="n">
+      <c r="S2">
         <v>8</v>
       </c>
-      <c r="T2" t="n">
+      <c r="T2">
         <v>6</v>
       </c>
       <c r="U2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="V2" t="n">
+      <c r="V2">
         <v>771</v>
       </c>
-      <c r="W2" t="n">
+      <c r="W2">
         <v>181</v>
       </c>
-      <c r="X2" t="n">
+      <c r="X2">
         <v>201</v>
       </c>
       <c r="Y2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="Z2" t="n">
+      <c r="Z2">
         <v>350</v>
       </c>
-      <c r="AA2" t="n">
+      <c r="AA2">
         <v>86</v>
       </c>
-      <c r="AB2" t="n">
+      <c r="AB2">
         <v>103</v>
       </c>
     </row>
-    <row r="3" spans="1:28">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>7.56</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>3.24</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>2.79</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>29</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>15</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3">
         <v>13</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3">
         <v>106</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K3">
         <v>13</v>
       </c>
-      <c r="L3" t="n">
+      <c r="L3">
         <v>32</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="N3" t="n">
+      <c r="N3">
         <v>41</v>
       </c>
-      <c r="O3" t="n">
+      <c r="O3">
         <v>19</v>
       </c>
-      <c r="P3" t="n">
+      <c r="P3">
         <v>11</v>
       </c>
       <c r="Q3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="R3" t="n">
+      <c r="R3">
         <v>17</v>
       </c>
-      <c r="S3" t="n">
+      <c r="S3">
         <v>9</v>
       </c>
-      <c r="T3" t="n">
+      <c r="T3">
         <v>3</v>
       </c>
       <c r="U3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="V3" t="n">
+      <c r="V3">
         <v>338</v>
       </c>
-      <c r="W3" t="n">
+      <c r="W3">
         <v>69</v>
       </c>
-      <c r="X3" t="n">
+      <c r="X3">
         <v>88</v>
       </c>
       <c r="Y3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="Z3" t="n">
+      <c r="Z3">
         <v>303</v>
       </c>
-      <c r="AA3" t="n">
+      <c r="AA3">
         <v>64</v>
       </c>
-      <c r="AB3" t="n">
+      <c r="AB3">
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:28">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>9.93</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>2.97</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>3</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>205</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>81</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4">
         <v>50</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4">
         <v>28</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K4">
         <v>14</v>
       </c>
-      <c r="L4" t="n">
+      <c r="L4">
         <v>4</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N4" t="n">
+      <c r="N4">
         <v>64</v>
       </c>
-      <c r="O4" t="n">
+      <c r="O4">
         <v>24</v>
       </c>
-      <c r="P4" t="n">
+      <c r="P4">
         <v>27</v>
       </c>
       <c r="Q4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="R4" t="n">
+      <c r="R4">
         <v>5</v>
       </c>
-      <c r="S4" t="n">
+      <c r="S4">
         <v>7</v>
       </c>
-      <c r="T4" t="n">
+      <c r="T4">
         <v>2</v>
       </c>
       <c r="U4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="V4" t="n">
+      <c r="V4">
         <v>1109</v>
       </c>
-      <c r="W4" t="n">
+      <c r="W4">
         <v>250</v>
       </c>
-      <c r="X4" t="n">
+      <c r="X4">
         <v>289</v>
       </c>
       <c r="Y4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Z4" t="n">
+      <c r="Z4">
         <v>184</v>
       </c>
-      <c r="AA4" t="n">
+      <c r="AA4">
         <v>48</v>
       </c>
-      <c r="AB4" t="n">
+      <c r="AB4">
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:28">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>103.65</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>26.76</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>24.84</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>9</v>
       </c>
-      <c r="G5" t="n">
-        <v>2</v>
-      </c>
-      <c r="H5" t="n">
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5">
         <v>6</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J5">
         <v>58</v>
       </c>
-      <c r="K5" t="n">
+      <c r="K5">
         <v>22</v>
       </c>
-      <c r="L5" t="n">
+      <c r="L5">
         <v>12</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="N5" t="n">
+      <c r="N5">
         <v>161</v>
       </c>
-      <c r="O5" t="n">
+      <c r="O5">
         <v>47</v>
       </c>
-      <c r="P5" t="n">
+      <c r="P5">
         <v>44</v>
       </c>
       <c r="Q5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="R5" t="n">
+      <c r="R5">
         <v>38</v>
       </c>
-      <c r="S5" t="n">
+      <c r="S5">
         <v>24</v>
       </c>
-      <c r="T5" t="n">
+      <c r="T5">
         <v>11</v>
       </c>
       <c r="Y5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Z5" t="n">
+      <c r="Z5">
         <v>837</v>
       </c>
-      <c r="AA5" t="n">
+      <c r="AA5">
         <v>198</v>
       </c>
-      <c r="AB5" t="n">
+      <c r="AB5">
         <v>197</v>
       </c>
     </row>
-    <row r="6" spans="1:28">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B6" t="n">
-        <v>19.17</v>
-      </c>
-      <c r="C6" t="n">
+      <c r="B6">
+        <v>19.170000000000002</v>
+      </c>
+      <c r="C6">
         <v>13.38</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>6.39</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>101</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>41</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6">
         <v>33</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J6">
         <v>100</v>
       </c>
-      <c r="K6" t="n">
+      <c r="K6">
         <v>31</v>
       </c>
-      <c r="L6" t="n">
+      <c r="L6">
         <v>8</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N6" t="n">
+      <c r="N6">
         <v>81</v>
       </c>
-      <c r="O6" t="n">
+      <c r="O6">
         <v>34</v>
       </c>
-      <c r="P6" t="n">
+      <c r="P6">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:28">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>8.91</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>7.44</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>4.08</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>10</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>6</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7">
         <v>3</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J7">
         <v>69</v>
       </c>
-      <c r="K7" t="n">
+      <c r="K7">
         <v>9</v>
       </c>
-      <c r="L7" t="n">
+      <c r="L7">
         <v>17</v>
       </c>
       <c r="M7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="N7" t="n">
+      <c r="N7">
         <v>83</v>
       </c>
-      <c r="O7" t="n">
+      <c r="O7">
         <v>43</v>
       </c>
-      <c r="P7" t="n">
+      <c r="P7">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:28">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>3.3</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>2.4</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>1.41</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>8</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>5</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8">
         <v>1</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J8" t="n">
+      <c r="J8">
         <v>759</v>
       </c>
-      <c r="K8" t="n">
+      <c r="K8">
         <v>151</v>
       </c>
-      <c r="L8" t="n">
+      <c r="L8">
         <v>197</v>
       </c>
       <c r="M8" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="N8" t="n">
+      <c r="N8">
         <v>58</v>
       </c>
-      <c r="O8" t="n">
+      <c r="O8">
         <v>19</v>
       </c>
-      <c r="P8" t="n">
+      <c r="P8">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:28">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>3.24</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>2.34</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>2.7</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>20</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>9</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9">
         <v>2</v>
       </c>
       <c r="M9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N9" t="n">
+      <c r="N9">
         <v>542</v>
       </c>
-      <c r="O9" t="n">
+      <c r="O9">
         <v>186</v>
       </c>
-      <c r="P9" t="n">
+      <c r="P9">
         <v>143</v>
       </c>
     </row>
-    <row r="10" spans="1:28">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>45.42</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>13.5</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>12.36</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>21</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>13</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:28">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>216.12</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>76.8</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>61.62</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>14</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>6</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:28">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="E12" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12">
         <v>8</v>
       </c>
-      <c r="G12" t="n">
-        <v>1</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28">
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="E13" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13">
         <v>4</v>
       </c>
-      <c r="G13" t="n">
-        <v>1</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28">
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="E14" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14">
         <v>10</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14">
         <v>6</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H14">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:28">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="E15" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15">
         <v>482</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15">
         <v>201</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H15">
         <v>129</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>14.94</v>
+      </c>
+      <c r="C2">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="D2">
+        <v>4.05</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2">
+        <v>43</v>
+      </c>
+      <c r="G2">
+        <v>15</v>
+      </c>
+      <c r="H2">
+        <v>8</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2">
+        <v>398</v>
+      </c>
+      <c r="K2">
+        <v>62</v>
+      </c>
+      <c r="L2">
+        <v>124</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N2">
+        <v>54</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="R2">
+        <v>16</v>
+      </c>
+      <c r="S2">
+        <v>8</v>
+      </c>
+      <c r="T2">
+        <v>6</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="V2">
+        <v>771</v>
+      </c>
+      <c r="W2">
+        <v>181</v>
+      </c>
+      <c r="X2">
+        <v>201</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z2">
+        <v>350</v>
+      </c>
+      <c r="AA2">
+        <v>86</v>
+      </c>
+      <c r="AB2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>7.56</v>
+      </c>
+      <c r="C3">
+        <v>3.24</v>
+      </c>
+      <c r="D3">
+        <v>2.79</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3">
+        <v>29</v>
+      </c>
+      <c r="G3">
+        <v>15</v>
+      </c>
+      <c r="H3">
+        <v>13</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3">
+        <v>106</v>
+      </c>
+      <c r="K3">
+        <v>13</v>
+      </c>
+      <c r="L3">
+        <v>32</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N3">
+        <v>41</v>
+      </c>
+      <c r="O3">
+        <v>19</v>
+      </c>
+      <c r="P3">
+        <v>11</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R3">
+        <v>17</v>
+      </c>
+      <c r="S3">
+        <v>9</v>
+      </c>
+      <c r="T3">
+        <v>3</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="V3">
+        <v>338</v>
+      </c>
+      <c r="W3">
+        <v>69</v>
+      </c>
+      <c r="X3">
+        <v>88</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z3">
+        <v>303</v>
+      </c>
+      <c r="AA3">
+        <v>64</v>
+      </c>
+      <c r="AB3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4">
+        <v>9.93</v>
+      </c>
+      <c r="C4">
+        <v>2.97</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4">
+        <v>205</v>
+      </c>
+      <c r="G4">
+        <v>81</v>
+      </c>
+      <c r="H4">
+        <v>50</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4">
+        <v>28</v>
+      </c>
+      <c r="K4">
+        <v>14</v>
+      </c>
+      <c r="L4">
+        <v>4</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N4">
+        <v>64</v>
+      </c>
+      <c r="O4">
+        <v>24</v>
+      </c>
+      <c r="P4">
+        <v>27</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R4">
+        <v>5</v>
+      </c>
+      <c r="S4">
+        <v>7</v>
+      </c>
+      <c r="T4">
+        <v>2</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="V4">
+        <v>1109</v>
+      </c>
+      <c r="W4">
+        <v>250</v>
+      </c>
+      <c r="X4">
+        <v>289</v>
+      </c>
+      <c r="Y4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z4">
+        <v>184</v>
+      </c>
+      <c r="AA4">
+        <v>48</v>
+      </c>
+      <c r="AB4">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5">
+        <v>103.65</v>
+      </c>
+      <c r="C5">
+        <v>26.76</v>
+      </c>
+      <c r="D5">
+        <v>24.84</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5">
+        <v>9</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>6</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5">
+        <v>58</v>
+      </c>
+      <c r="K5">
+        <v>22</v>
+      </c>
+      <c r="L5">
+        <v>12</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N5">
+        <v>161</v>
+      </c>
+      <c r="O5">
+        <v>47</v>
+      </c>
+      <c r="P5">
+        <v>44</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="R5">
+        <v>38</v>
+      </c>
+      <c r="S5">
+        <v>24</v>
+      </c>
+      <c r="T5">
+        <v>11</v>
+      </c>
+      <c r="Y5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z5">
+        <v>837</v>
+      </c>
+      <c r="AA5">
+        <v>198</v>
+      </c>
+      <c r="AB5">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6">
+        <v>19.170000000000002</v>
+      </c>
+      <c r="C6">
+        <v>13.38</v>
+      </c>
+      <c r="D6">
+        <v>6.39</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6">
+        <v>101</v>
+      </c>
+      <c r="G6">
+        <v>41</v>
+      </c>
+      <c r="H6">
+        <v>33</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6">
+        <v>100</v>
+      </c>
+      <c r="K6">
+        <v>31</v>
+      </c>
+      <c r="L6">
+        <v>8</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N6">
+        <v>81</v>
+      </c>
+      <c r="O6">
+        <v>34</v>
+      </c>
+      <c r="P6">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7">
+        <v>8.91</v>
+      </c>
+      <c r="C7">
+        <v>7.44</v>
+      </c>
+      <c r="D7">
+        <v>4.08</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7">
+        <v>10</v>
+      </c>
+      <c r="G7">
+        <v>6</v>
+      </c>
+      <c r="H7">
+        <v>3</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J7">
+        <v>69</v>
+      </c>
+      <c r="K7">
+        <v>9</v>
+      </c>
+      <c r="L7">
+        <v>17</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N7">
+        <v>83</v>
+      </c>
+      <c r="O7">
+        <v>43</v>
+      </c>
+      <c r="P7">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8">
+        <v>3.3</v>
+      </c>
+      <c r="C8">
+        <v>2.4</v>
+      </c>
+      <c r="D8">
+        <v>1.41</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8">
+        <v>8</v>
+      </c>
+      <c r="G8">
+        <v>5</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8">
+        <v>759</v>
+      </c>
+      <c r="K8">
+        <v>151</v>
+      </c>
+      <c r="L8">
+        <v>197</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="N8">
+        <v>58</v>
+      </c>
+      <c r="O8">
+        <v>19</v>
+      </c>
+      <c r="P8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9">
+        <v>3.24</v>
+      </c>
+      <c r="C9">
+        <v>2.34</v>
+      </c>
+      <c r="D9">
+        <v>2.7</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9">
+        <v>20</v>
+      </c>
+      <c r="G9">
+        <v>9</v>
+      </c>
+      <c r="H9">
+        <v>2</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N9">
+        <v>542</v>
+      </c>
+      <c r="O9">
+        <v>186</v>
+      </c>
+      <c r="P9">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10">
+        <v>45.42</v>
+      </c>
+      <c r="C10">
+        <v>13.5</v>
+      </c>
+      <c r="D10">
+        <v>12.36</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10">
+        <v>21</v>
+      </c>
+      <c r="G10">
+        <v>13</v>
+      </c>
+      <c r="H10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11">
+        <v>216.12</v>
+      </c>
+      <c r="C11">
+        <v>76.8</v>
+      </c>
+      <c r="D11">
+        <v>61.62</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11">
+        <v>14</v>
+      </c>
+      <c r="G11">
+        <v>6</v>
+      </c>
+      <c r="H11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="E12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12">
+        <v>8</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="E13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13">
+        <v>4</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="E14" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14">
+        <v>10</v>
+      </c>
+      <c r="G14">
+        <v>6</v>
+      </c>
+      <c r="H14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="E15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15">
+        <v>482</v>
+      </c>
+      <c r="G15">
+        <v>201</v>
+      </c>
+      <c r="H15">
+        <v>129</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AB15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1315,635 +2028,635 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:28">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="n">
-        <v>14.94</v>
-      </c>
-      <c r="C2" t="n">
-        <v>4.77</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.05</v>
+      <c r="B2">
+        <v>14.97</v>
+      </c>
+      <c r="C2">
+        <v>5.52</v>
+      </c>
+      <c r="D2">
+        <v>3.72</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" t="n">
-        <v>43</v>
-      </c>
-      <c r="G2" t="n">
-        <v>15</v>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
+      <c r="F2">
+        <v>31</v>
+      </c>
+      <c r="G2">
+        <v>31</v>
+      </c>
+      <c r="H2">
+        <v>9</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J2" t="n">
-        <v>398</v>
-      </c>
-      <c r="K2" t="n">
-        <v>62</v>
-      </c>
-      <c r="L2" t="n">
-        <v>124</v>
+      <c r="J2">
+        <v>492</v>
+      </c>
+      <c r="K2">
+        <v>110</v>
+      </c>
+      <c r="L2">
+        <v>70</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="N2" t="n">
+      <c r="N2">
         <v>54</v>
       </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="R2" t="n">
-        <v>16</v>
-      </c>
-      <c r="S2" t="n">
-        <v>8</v>
-      </c>
-      <c r="T2" t="n">
-        <v>6</v>
+      <c r="R2">
+        <v>33</v>
+      </c>
+      <c r="S2">
+        <v>17</v>
+      </c>
+      <c r="T2">
+        <v>11</v>
       </c>
       <c r="U2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="V2" t="n">
-        <v>771</v>
-      </c>
-      <c r="W2" t="n">
-        <v>181</v>
-      </c>
-      <c r="X2" t="n">
-        <v>201</v>
+      <c r="V2">
+        <v>795</v>
+      </c>
+      <c r="W2">
+        <v>265</v>
+      </c>
+      <c r="X2">
+        <v>214</v>
       </c>
       <c r="Y2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="Z2" t="n">
-        <v>350</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>86</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28">
+      <c r="Z2">
+        <v>335</v>
+      </c>
+      <c r="AA2">
+        <v>111</v>
+      </c>
+      <c r="AB2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="n">
-        <v>7.56</v>
-      </c>
-      <c r="C3" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.79</v>
+      <c r="B3">
+        <v>7.41</v>
+      </c>
+      <c r="C3">
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="D3">
+        <v>4.41</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F3" t="n">
-        <v>29</v>
-      </c>
-      <c r="G3" t="n">
-        <v>15</v>
-      </c>
-      <c r="H3" t="n">
-        <v>13</v>
+      <c r="F3">
+        <v>32</v>
+      </c>
+      <c r="G3">
+        <v>22</v>
+      </c>
+      <c r="H3">
+        <v>11</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J3" t="n">
-        <v>106</v>
-      </c>
-      <c r="K3" t="n">
-        <v>13</v>
-      </c>
-      <c r="L3" t="n">
-        <v>32</v>
+      <c r="J3">
+        <v>52</v>
+      </c>
+      <c r="K3">
+        <v>20</v>
+      </c>
+      <c r="L3">
+        <v>14</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="N3" t="n">
-        <v>41</v>
-      </c>
-      <c r="O3" t="n">
-        <v>19</v>
-      </c>
-      <c r="P3" t="n">
-        <v>11</v>
+      <c r="N3">
+        <v>38</v>
+      </c>
+      <c r="O3">
+        <v>24</v>
+      </c>
+      <c r="P3">
+        <v>8</v>
       </c>
       <c r="Q3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="R3" t="n">
-        <v>17</v>
-      </c>
-      <c r="S3" t="n">
-        <v>9</v>
-      </c>
-      <c r="T3" t="n">
-        <v>3</v>
+      <c r="R3">
+        <v>13</v>
+      </c>
+      <c r="S3">
+        <v>10</v>
+      </c>
+      <c r="T3">
+        <v>6</v>
       </c>
       <c r="U3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="V3" t="n">
-        <v>338</v>
-      </c>
-      <c r="W3" t="n">
-        <v>69</v>
-      </c>
-      <c r="X3" t="n">
-        <v>88</v>
+      <c r="V3">
+        <v>309</v>
+      </c>
+      <c r="W3">
+        <v>100</v>
+      </c>
+      <c r="X3">
+        <v>112</v>
       </c>
       <c r="Y3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="Z3" t="n">
-        <v>303</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>64</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28">
+      <c r="Z3">
+        <v>277</v>
+      </c>
+      <c r="AA3">
+        <v>86</v>
+      </c>
+      <c r="AB3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B4" t="n">
-        <v>9.93</v>
-      </c>
-      <c r="C4" t="n">
-        <v>2.97</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3</v>
+      <c r="B4">
+        <v>9.7799999999999994</v>
+      </c>
+      <c r="C4">
+        <v>5.01</v>
+      </c>
+      <c r="D4">
+        <v>3.48</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F4" t="n">
-        <v>205</v>
-      </c>
-      <c r="G4" t="n">
-        <v>81</v>
-      </c>
-      <c r="H4" t="n">
-        <v>50</v>
+      <c r="F4">
+        <v>217</v>
+      </c>
+      <c r="G4">
+        <v>95</v>
+      </c>
+      <c r="H4">
+        <v>63</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J4" t="n">
-        <v>28</v>
-      </c>
-      <c r="K4" t="n">
+      <c r="J4">
+        <v>37</v>
+      </c>
+      <c r="K4">
         <v>14</v>
       </c>
-      <c r="L4" t="n">
-        <v>4</v>
+      <c r="L4">
+        <v>11</v>
       </c>
       <c r="M4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="N4" t="n">
-        <v>64</v>
-      </c>
-      <c r="O4" t="n">
+      <c r="N4">
+        <v>49</v>
+      </c>
+      <c r="O4">
+        <v>25</v>
+      </c>
+      <c r="P4">
         <v>24</v>
-      </c>
-      <c r="P4" t="n">
-        <v>27</v>
       </c>
       <c r="Q4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="R4" t="n">
-        <v>5</v>
-      </c>
-      <c r="S4" t="n">
+      <c r="R4">
+        <v>19</v>
+      </c>
+      <c r="S4">
+        <v>6</v>
+      </c>
+      <c r="T4">
         <v>7</v>
-      </c>
-      <c r="T4" t="n">
-        <v>2</v>
       </c>
       <c r="U4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="V4" t="n">
-        <v>1109</v>
-      </c>
-      <c r="W4" t="n">
-        <v>250</v>
-      </c>
-      <c r="X4" t="n">
-        <v>289</v>
+      <c r="V4">
+        <v>1104</v>
+      </c>
+      <c r="W4">
+        <v>365</v>
+      </c>
+      <c r="X4">
+        <v>326</v>
       </c>
       <c r="Y4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Z4" t="n">
-        <v>184</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>48</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28">
+      <c r="Z4">
+        <v>160</v>
+      </c>
+      <c r="AA4">
+        <v>79</v>
+      </c>
+      <c r="AB4">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B5" t="n">
-        <v>103.65</v>
-      </c>
-      <c r="C5" t="n">
-        <v>26.76</v>
-      </c>
-      <c r="D5" t="n">
-        <v>24.84</v>
+      <c r="B5">
+        <v>103.74</v>
+      </c>
+      <c r="C5">
+        <v>36.869999999999997</v>
+      </c>
+      <c r="D5">
+        <v>24.69</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F5" t="n">
-        <v>9</v>
-      </c>
-      <c r="G5" t="n">
-        <v>2</v>
-      </c>
-      <c r="H5" t="n">
+      <c r="F5">
+        <v>34</v>
+      </c>
+      <c r="G5">
+        <v>21</v>
+      </c>
+      <c r="H5">
         <v>6</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="J5" t="n">
-        <v>58</v>
-      </c>
-      <c r="K5" t="n">
-        <v>22</v>
-      </c>
-      <c r="L5" t="n">
-        <v>12</v>
+      <c r="J5">
+        <v>38</v>
+      </c>
+      <c r="K5">
+        <v>8</v>
+      </c>
+      <c r="L5">
+        <v>8</v>
       </c>
       <c r="M5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="N5" t="n">
-        <v>161</v>
-      </c>
-      <c r="O5" t="n">
-        <v>47</v>
-      </c>
-      <c r="P5" t="n">
-        <v>44</v>
+      <c r="N5">
+        <v>194</v>
+      </c>
+      <c r="O5">
+        <v>89</v>
+      </c>
+      <c r="P5">
+        <v>25</v>
       </c>
       <c r="Q5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="R5" t="n">
-        <v>38</v>
-      </c>
-      <c r="S5" t="n">
+      <c r="R5">
+        <v>65</v>
+      </c>
+      <c r="S5">
+        <v>33</v>
+      </c>
+      <c r="T5">
         <v>24</v>
-      </c>
-      <c r="T5" t="n">
-        <v>11</v>
       </c>
       <c r="Y5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="Z5" t="n">
-        <v>837</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>198</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28">
+      <c r="Z5">
+        <v>772</v>
+      </c>
+      <c r="AA5">
+        <v>276</v>
+      </c>
+      <c r="AB5">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B6" t="n">
-        <v>19.17</v>
-      </c>
-      <c r="C6" t="n">
-        <v>13.38</v>
-      </c>
-      <c r="D6" t="n">
-        <v>6.39</v>
+      <c r="B6">
+        <v>24.39</v>
+      </c>
+      <c r="C6">
+        <v>20.52</v>
+      </c>
+      <c r="D6">
+        <v>5.85</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F6" t="n">
-        <v>101</v>
-      </c>
-      <c r="G6" t="n">
-        <v>41</v>
-      </c>
-      <c r="H6" t="n">
-        <v>33</v>
+      <c r="F6">
+        <v>99</v>
+      </c>
+      <c r="G6">
+        <v>42</v>
+      </c>
+      <c r="H6">
+        <v>18</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="J6" t="n">
-        <v>100</v>
-      </c>
-      <c r="K6" t="n">
-        <v>31</v>
-      </c>
-      <c r="L6" t="n">
-        <v>8</v>
+      <c r="J6">
+        <v>19</v>
+      </c>
+      <c r="K6">
+        <v>17</v>
+      </c>
+      <c r="L6">
+        <v>44</v>
       </c>
       <c r="M6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="N6" t="n">
-        <v>81</v>
-      </c>
-      <c r="O6" t="n">
-        <v>34</v>
-      </c>
-      <c r="P6" t="n">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28">
+      <c r="N6">
+        <v>74</v>
+      </c>
+      <c r="O6">
+        <v>47</v>
+      </c>
+      <c r="P6">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B7" t="n">
-        <v>8.91</v>
-      </c>
-      <c r="C7" t="n">
-        <v>7.44</v>
-      </c>
-      <c r="D7" t="n">
-        <v>4.08</v>
+      <c r="B7">
+        <v>11.58</v>
+      </c>
+      <c r="C7">
+        <v>9.66</v>
+      </c>
+      <c r="D7">
+        <v>2.2799999999999998</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F7" t="n">
-        <v>10</v>
-      </c>
-      <c r="G7" t="n">
+      <c r="F7">
         <v>6</v>
       </c>
-      <c r="H7" t="n">
-        <v>3</v>
+      <c r="G7">
+        <v>6</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J7" t="n">
-        <v>69</v>
-      </c>
-      <c r="K7" t="n">
-        <v>9</v>
-      </c>
-      <c r="L7" t="n">
+      <c r="J7">
+        <v>77</v>
+      </c>
+      <c r="K7">
+        <v>12</v>
+      </c>
+      <c r="L7">
         <v>17</v>
       </c>
       <c r="M7" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="N7" t="n">
-        <v>83</v>
-      </c>
-      <c r="O7" t="n">
-        <v>43</v>
-      </c>
-      <c r="P7" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28">
+      <c r="N7">
+        <v>74</v>
+      </c>
+      <c r="O7">
+        <v>61</v>
+      </c>
+      <c r="P7">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B8" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="C8" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1.41</v>
+      <c r="B8">
+        <v>3.93</v>
+      </c>
+      <c r="C8">
+        <v>2.64</v>
+      </c>
+      <c r="D8">
+        <v>1.02</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F8" t="n">
-        <v>8</v>
-      </c>
-      <c r="G8" t="n">
+      <c r="F8">
         <v>5</v>
       </c>
-      <c r="H8" t="n">
-        <v>1</v>
+      <c r="G8">
+        <v>13</v>
+      </c>
+      <c r="H8">
+        <v>4</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="J8" t="n">
-        <v>759</v>
-      </c>
-      <c r="K8" t="n">
-        <v>151</v>
-      </c>
-      <c r="L8" t="n">
-        <v>197</v>
+      <c r="J8">
+        <v>715</v>
+      </c>
+      <c r="K8">
+        <v>181</v>
+      </c>
+      <c r="L8">
+        <v>164</v>
       </c>
       <c r="M8" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="N8" t="n">
-        <v>58</v>
-      </c>
-      <c r="O8" t="n">
-        <v>19</v>
-      </c>
-      <c r="P8" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28">
+      <c r="N8">
+        <v>55</v>
+      </c>
+      <c r="O8">
+        <v>31</v>
+      </c>
+      <c r="P8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B9" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="C9" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="D9" t="n">
-        <v>2.7</v>
+      <c r="B9">
+        <v>3.66</v>
+      </c>
+      <c r="C9">
+        <v>3.09</v>
+      </c>
+      <c r="D9">
+        <v>0.96</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F9" t="n">
-        <v>20</v>
-      </c>
-      <c r="G9" t="n">
-        <v>9</v>
-      </c>
-      <c r="H9" t="n">
+      <c r="F9">
+        <v>12</v>
+      </c>
+      <c r="G9">
+        <v>16</v>
+      </c>
+      <c r="H9">
         <v>2</v>
       </c>
       <c r="M9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="N9" t="n">
-        <v>542</v>
-      </c>
-      <c r="O9" t="n">
-        <v>186</v>
-      </c>
-      <c r="P9" t="n">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28">
+      <c r="N9">
+        <v>538</v>
+      </c>
+      <c r="O9">
+        <v>277</v>
+      </c>
+      <c r="P9">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B10" t="n">
-        <v>45.42</v>
-      </c>
-      <c r="C10" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="D10" t="n">
-        <v>12.36</v>
+      <c r="B10">
+        <v>46.32</v>
+      </c>
+      <c r="C10">
+        <v>15.99</v>
+      </c>
+      <c r="D10">
+        <v>11.52</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F10" t="n">
-        <v>21</v>
-      </c>
-      <c r="G10" t="n">
+      <c r="F10">
         <v>13</v>
       </c>
-      <c r="H10" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28">
+      <c r="G10">
+        <v>13</v>
+      </c>
+      <c r="H10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B11" t="n">
-        <v>216.12</v>
-      </c>
-      <c r="C11" t="n">
-        <v>76.8</v>
-      </c>
-      <c r="D11" t="n">
-        <v>61.62</v>
+      <c r="B11">
+        <v>225.78</v>
+      </c>
+      <c r="C11">
+        <v>103.74</v>
+      </c>
+      <c r="D11">
+        <v>57.930000000000007</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F11" t="n">
-        <v>14</v>
-      </c>
-      <c r="G11" t="n">
-        <v>6</v>
-      </c>
-      <c r="H11" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:28">
+      <c r="F11">
+        <v>20</v>
+      </c>
+      <c r="G11">
+        <v>16</v>
+      </c>
+      <c r="H11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="E12" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F12" t="n">
-        <v>8</v>
-      </c>
-      <c r="G12" t="n">
-        <v>1</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28">
+      <c r="F12">
+        <v>12</v>
+      </c>
+      <c r="G12">
+        <v>3</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="E13" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F13" t="n">
-        <v>4</v>
-      </c>
-      <c r="G13" t="n">
-        <v>1</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28">
+      <c r="F13">
+        <v>7</v>
+      </c>
+      <c r="G13">
+        <v>3</v>
+      </c>
+      <c r="H13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="E14" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F14" t="n">
-        <v>10</v>
-      </c>
-      <c r="G14" t="n">
-        <v>6</v>
-      </c>
-      <c r="H14" t="n">
+      <c r="F14">
+        <v>20</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:28">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="E15" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F15" t="n">
-        <v>482</v>
-      </c>
-      <c r="G15" t="n">
-        <v>201</v>
-      </c>
-      <c r="H15" t="n">
-        <v>129</v>
+      <c r="F15">
+        <v>508</v>
+      </c>
+      <c r="G15">
+        <v>282</v>
+      </c>
+      <c r="H15">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Rastreo productos/output.xlsx
+++ b/Rastreo productos/output.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="555" windowWidth="12615" windowHeight="6855" activeTab="2"/>
+    <workbookView xWindow="390" yWindow="585" windowWidth="11415" windowHeight="6855" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="2018-09-01" sheetId="1" r:id="rId1"/>
     <sheet name="2018-10-09" sheetId="2" r:id="rId2"/>
     <sheet name="2018-11-14(05-11_11)" sheetId="3" r:id="rId3"/>
+    <sheet name="2019-01-23(14-20_01)" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="47">
   <si>
     <t>I</t>
   </si>
@@ -163,7 +164,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -185,6 +186,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -194,7 +201,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -232,16 +239,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1957,8 +1982,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2659,4 +2684,712 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AB15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="Q10" sqref="Q10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>16.05</v>
+      </c>
+      <c r="C2">
+        <v>5.43</v>
+      </c>
+      <c r="D2">
+        <v>3.36</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2">
+        <v>28</v>
+      </c>
+      <c r="G2">
+        <v>12</v>
+      </c>
+      <c r="H2">
+        <v>13</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2">
+        <v>470</v>
+      </c>
+      <c r="K2">
+        <v>64</v>
+      </c>
+      <c r="L2">
+        <v>32</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="N2">
+        <v>58</v>
+      </c>
+      <c r="O2">
+        <v>23</v>
+      </c>
+      <c r="P2">
+        <v>12</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="R2">
+        <v>32</v>
+      </c>
+      <c r="S2">
+        <v>9</v>
+      </c>
+      <c r="T2">
+        <v>15</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V2">
+        <v>767</v>
+      </c>
+      <c r="W2">
+        <v>211</v>
+      </c>
+      <c r="X2">
+        <v>220</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z2">
+        <v>356</v>
+      </c>
+      <c r="AA2">
+        <v>61</v>
+      </c>
+      <c r="AB2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>7.62</v>
+      </c>
+      <c r="C3">
+        <v>3.78</v>
+      </c>
+      <c r="D3">
+        <v>3.21</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3">
+        <v>10</v>
+      </c>
+      <c r="G3">
+        <v>22</v>
+      </c>
+      <c r="H3">
+        <v>7</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3">
+        <v>124</v>
+      </c>
+      <c r="K3">
+        <v>11</v>
+      </c>
+      <c r="L3">
+        <v>10</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="N3">
+        <v>39</v>
+      </c>
+      <c r="O3">
+        <v>16</v>
+      </c>
+      <c r="P3">
+        <v>17</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="R3">
+        <v>22</v>
+      </c>
+      <c r="S3">
+        <v>7</v>
+      </c>
+      <c r="T3">
+        <v>4</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="V3">
+        <v>266</v>
+      </c>
+      <c r="W3">
+        <v>80</v>
+      </c>
+      <c r="X3">
+        <v>91</v>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z3">
+        <v>366</v>
+      </c>
+      <c r="AA3">
+        <v>56</v>
+      </c>
+      <c r="AB3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4">
+        <v>8.58</v>
+      </c>
+      <c r="C4">
+        <v>2.97</v>
+      </c>
+      <c r="D4">
+        <v>4.41</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4">
+        <v>159</v>
+      </c>
+      <c r="G4">
+        <v>78</v>
+      </c>
+      <c r="H4">
+        <v>50</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4">
+        <v>27</v>
+      </c>
+      <c r="K4">
+        <v>4</v>
+      </c>
+      <c r="L4">
+        <v>9</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N4">
+        <v>32</v>
+      </c>
+      <c r="O4">
+        <v>13</v>
+      </c>
+      <c r="P4">
+        <v>9</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="R4">
+        <v>16</v>
+      </c>
+      <c r="S4">
+        <v>7</v>
+      </c>
+      <c r="T4">
+        <v>1</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="V4">
+        <v>1033</v>
+      </c>
+      <c r="W4">
+        <v>291</v>
+      </c>
+      <c r="X4">
+        <v>311</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z4">
+        <v>175</v>
+      </c>
+      <c r="AA4">
+        <v>67</v>
+      </c>
+      <c r="AB4">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5">
+        <v>100.59</v>
+      </c>
+      <c r="C5">
+        <v>23.52</v>
+      </c>
+      <c r="D5">
+        <v>24.48</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5">
+        <v>25</v>
+      </c>
+      <c r="G5">
+        <v>8</v>
+      </c>
+      <c r="H5">
+        <v>8</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5">
+        <v>19</v>
+      </c>
+      <c r="K5">
+        <v>10</v>
+      </c>
+      <c r="L5">
+        <v>8</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N5">
+        <v>132</v>
+      </c>
+      <c r="O5">
+        <v>49</v>
+      </c>
+      <c r="P5">
+        <v>42</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="R5">
+        <v>70</v>
+      </c>
+      <c r="S5">
+        <v>23</v>
+      </c>
+      <c r="T5">
+        <v>20</v>
+      </c>
+      <c r="Y5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z5">
+        <v>897</v>
+      </c>
+      <c r="AA5">
+        <v>184</v>
+      </c>
+      <c r="AB5">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6">
+        <v>20.7</v>
+      </c>
+      <c r="C6">
+        <v>10.74</v>
+      </c>
+      <c r="D6">
+        <v>5.94</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6">
+        <v>79</v>
+      </c>
+      <c r="G6">
+        <v>36</v>
+      </c>
+      <c r="H6">
+        <v>29</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6">
+        <v>51</v>
+      </c>
+      <c r="K6">
+        <v>14</v>
+      </c>
+      <c r="L6">
+        <v>56</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N6">
+        <v>75</v>
+      </c>
+      <c r="O6">
+        <v>19</v>
+      </c>
+      <c r="P6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7">
+        <v>9.84</v>
+      </c>
+      <c r="C7">
+        <v>4.08</v>
+      </c>
+      <c r="D7">
+        <v>4.41</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7">
+        <v>8</v>
+      </c>
+      <c r="G7">
+        <v>9</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J7">
+        <v>73</v>
+      </c>
+      <c r="K7">
+        <v>9</v>
+      </c>
+      <c r="L7">
+        <v>12</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N7">
+        <v>50</v>
+      </c>
+      <c r="O7">
+        <v>23</v>
+      </c>
+      <c r="P7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8">
+        <v>3.84</v>
+      </c>
+      <c r="C8">
+        <v>1.68</v>
+      </c>
+      <c r="D8">
+        <v>1.71</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8">
+        <v>9</v>
+      </c>
+      <c r="G8">
+        <v>5</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8">
+        <v>764</v>
+      </c>
+      <c r="K8">
+        <v>112</v>
+      </c>
+      <c r="L8">
+        <v>127</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N8">
+        <v>36</v>
+      </c>
+      <c r="O8">
+        <v>13</v>
+      </c>
+      <c r="P8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9">
+        <v>4.68</v>
+      </c>
+      <c r="C9">
+        <v>1.68</v>
+      </c>
+      <c r="D9">
+        <v>1.2</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9">
+        <v>13</v>
+      </c>
+      <c r="G9">
+        <v>6</v>
+      </c>
+      <c r="H9">
+        <v>2</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N9">
+        <v>422</v>
+      </c>
+      <c r="O9">
+        <v>133</v>
+      </c>
+      <c r="P9">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10">
+        <v>40.98</v>
+      </c>
+      <c r="C10">
+        <v>15.36</v>
+      </c>
+      <c r="D10">
+        <v>13.26</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10">
+        <v>31</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="H10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11">
+        <v>212.88</v>
+      </c>
+      <c r="C11">
+        <v>69.240000000000009</v>
+      </c>
+      <c r="D11">
+        <v>61.98</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11">
+        <v>24</v>
+      </c>
+      <c r="G11">
+        <v>4</v>
+      </c>
+      <c r="H11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="E12" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12">
+        <v>11</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+      <c r="H12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="E13" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13">
+        <v>4</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="E14" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14">
+        <v>16</v>
+      </c>
+      <c r="G14">
+        <v>2</v>
+      </c>
+      <c r="H14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="E15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15">
+        <v>417</v>
+      </c>
+      <c r="G15">
+        <v>186</v>
+      </c>
+      <c r="H15">
+        <v>134</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>